--- a/Data/Excel_Long/camino_ages_long.xlsx
+++ b/Data/Excel_Long/camino_ages_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F668"/>
+  <dimension ref="A1:F674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>378</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>209</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>635</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>716</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1654</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1264</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8025</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6545</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>984</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11374</v>
+        <v>22748</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2656</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2830</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12502</v>
+        <v>25004</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3975</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2818</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14843</v>
+        <v>29686</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15289</v>
+        <v>30578</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1759</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>21715</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>22588</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1298</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12852</v>
+        <v>25704</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7565</v>
+        <v>15130</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2335</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>8975</v>
+        <v>17950</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3933</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1648</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3056</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>984</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>370</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2543</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1037</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>318</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1352</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1677</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1793</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1042</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>472</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5954</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1307</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2049</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7813</v>
+        <v>15626</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2090</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2716</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9232</v>
+        <v>18464</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8368</v>
+        <v>16736</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1204</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>14345</v>
+        <v>28690</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9681</v>
+        <v>19362</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>805</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6905</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3650</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1613</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4064</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1548</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1261</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>907</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>341</v>
+        <v>682</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>437</v>
+        <v>874</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>166</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>535</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>493</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3635</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3257</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>559</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>6209</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1418</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2520</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>8068</v>
+        <v>16136</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2069</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2874</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8970</v>
+        <v>17940</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8606</v>
+        <v>17212</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1144</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>14502</v>
+        <v>29004</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10793</v>
+        <v>21586</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>888</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>7561</v>
+        <v>15122</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3742</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2167</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4670</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1583</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1447</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1090</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>452</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>213</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>573</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>231</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>99</v>
+        <v>198</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>320</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>321</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>735</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>812</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4484</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2658</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>973</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8011</v>
+        <v>16022</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1693</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3220</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>9395</v>
+        <v>18790</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2488</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3299</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>9631</v>
+        <v>19262</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>9067</v>
+        <v>18134</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1458</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>15499</v>
+        <v>30998</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10679</v>
+        <v>21358</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1111</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>8829</v>
+        <v>17658</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3928</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2525</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="137">
@@ -16466,6 +16466,150 @@
       </c>
       <c r="F668" t="n">
         <v>14104</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D669" t="n">
+        <v>11</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>30-60</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D670" t="n">
+        <v>11</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>&lt;30</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D671" t="n">
+        <v>11</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>&gt;60</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D672" t="n">
+        <v>12</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>30-60</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D673" t="n">
+        <v>12</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>&lt;30</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D674" t="n">
+        <v>12</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>&gt;60</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_ages_long.xlsx
+++ b/Data/Excel_Long/camino_ages_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F674"/>
+  <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>756</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>418</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1270</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1432</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3308</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2528</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16050</v>
+        <v>8025</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13090</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1968</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22748</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5312</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5660</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25004</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7950</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5636</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29686</v>
+        <v>14843</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30578</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3518</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>43430</v>
+        <v>21715</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45176</v>
+        <v>22588</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2596</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>25704</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>15130</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4670</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>17950</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7866</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3296</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6112</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1968</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>740</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5086</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2074</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>636</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2704</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3354</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3586</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2084</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>944</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>11908</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2614</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4098</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>15626</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4180</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5432</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>18464</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>16736</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2408</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>28690</v>
+        <v>14345</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>19362</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1610</v>
+        <v>805</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>13810</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7300</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3226</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8128</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3096</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2522</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1814</v>
+        <v>907</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>682</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>874</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>404</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>332</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1070</v>
+        <v>535</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>986</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>7270</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>6514</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1118</v>
+        <v>559</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12418</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2836</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5040</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>16136</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4138</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5748</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="92">
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17940</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="93">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17212</v>
+        <v>8606</v>
       </c>
     </row>
     <row r="94">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2288</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="95">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>29004</v>
+        <v>14502</v>
       </c>
     </row>
     <row r="96">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>21586</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="97">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1776</v>
+        <v>888</v>
       </c>
     </row>
     <row r="98">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>15122</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="99">
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7484</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="100">
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4334</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="101">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9340</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="102">
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3166</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="103">
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2894</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="104">
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2180</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="105">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>904</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>426</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1146</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108">
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110">
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>462</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>642</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115">
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1470</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117">
@@ -3241,7 +3241,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1624</v>
+        <v>812</v>
       </c>
     </row>
     <row r="118">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>8968</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="120">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>5316</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="121">
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1946</v>
+        <v>973</v>
       </c>
     </row>
     <row r="122">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>16022</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="123">
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3386</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="124">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6440</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="125">
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>18790</v>
+        <v>9395</v>
       </c>
     </row>
     <row r="126">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4976</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="127">
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>6598</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="128">
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>19262</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>18134</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="130">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2916</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="131">
@@ -3577,7 +3577,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>30998</v>
+        <v>15499</v>
       </c>
     </row>
     <row r="132">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>21358</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="133">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2222</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="134">
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>17658</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="135">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7856</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="136">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5050</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="137">
@@ -16610,6 +16610,78 @@
       </c>
       <c r="F674" t="n">
         <v>731</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>30-60</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>&lt;30</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>&gt;60</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_ages_long.xlsx
+++ b/Data/Excel_Long/camino_ages_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F677"/>
+  <dimension ref="A1:F680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16684,6 +16684,78 @@
         <v>198</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D678" t="n">
+        <v>2</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>30-60</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D679" t="n">
+        <v>2</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>&lt;30</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D680" t="n">
+        <v>2</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>&gt;60</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
